--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,21 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>net1</t>
+  </si>
+  <si>
+    <t>net2</t>
+  </si>
+  <si>
+    <t>pv1</t>
+  </si>
+  <si>
+    <t>pv2</t>
+  </si>
+  <si>
+    <t>bat1</t>
+  </si>
+  <si>
+    <t>bat2</t>
+  </si>
+  <si>
+    <t>CHP1</t>
+  </si>
+  <si>
+    <t>CHP2</t>
+  </si>
   <si>
     <t>demand1</t>
   </si>
   <si>
-    <t>net1</t>
-  </si>
-  <si>
-    <t>pv1</t>
-  </si>
-  <si>
-    <t>bat1</t>
-  </si>
-  <si>
-    <t>CHP1</t>
+    <t>demand2</t>
   </si>
 </sst>
 </file>
@@ -386,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,10 +423,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -428,68 +452,104 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,6 +566,44 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,36 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>net1</t>
-  </si>
-  <si>
-    <t>net2</t>
   </si>
   <si>
     <t>pv1</t>
   </si>
   <si>
-    <t>pv2</t>
-  </si>
-  <si>
     <t>bat1</t>
-  </si>
-  <si>
-    <t>bat2</t>
   </si>
   <si>
     <t>CHP1</t>
   </si>
   <si>
-    <t>CHP2</t>
-  </si>
-  <si>
     <t>demand1</t>
-  </si>
-  <si>
-    <t>demand2</t>
   </si>
 </sst>
 </file>
@@ -401,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,80 +405,44 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -505,105 +454,6 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>net1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>CHP1</t>
+  </si>
+  <si>
+    <t>pvt1</t>
   </si>
   <si>
     <t>demand1</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,10 +408,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -422,8 +428,11 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +448,11 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -454,6 +466,9 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,24 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>net1</t>
-  </si>
-  <si>
-    <t>pv1</t>
-  </si>
-  <si>
-    <t>bat1</t>
-  </si>
-  <si>
-    <t>CHP1</t>
-  </si>
-  <si>
-    <t>pvt1</t>
-  </si>
-  <si>
-    <t>demand1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_to_demand1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
   </si>
 </sst>
 </file>
@@ -416,60 +458,60 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -22,58 +22,28 @@
     <t>P_from_pv1</t>
   </si>
   <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>P_from_CHP1</t>
-  </si>
-  <si>
-    <t>P_from_pvt1</t>
-  </si>
-  <si>
     <t>P_to_demand1</t>
   </si>
   <si>
     <t>P_to_net1</t>
   </si>
   <si>
-    <t>P_to_bat1</t>
+    <t>P_to_charging_station1</t>
   </si>
   <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
     <t>P_pv1_net1</t>
   </si>
   <si>
-    <t>P_pv1_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP1_net1</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt1_net1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat1</t>
+    <t>P_pv1_charging_station1</t>
   </si>
 </sst>
 </file>
@@ -431,87 +401,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -22,18 +22,27 @@
     <t>P_from_pv1</t>
   </si>
   <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
     <t>P_to_demand1</t>
   </si>
   <si>
     <t>P_to_net1</t>
   </si>
   <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
     <t>P_to_charging_station1</t>
   </si>
   <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
     <t>P_net1_charging_station1</t>
   </si>
   <si>
@@ -43,7 +52,19 @@
     <t>P_pv1_net1</t>
   </si>
   <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
     <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
   </si>
 </sst>
 </file>
@@ -401,51 +422,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,6 +25,12 @@
     <t>P_from_bat1</t>
   </si>
   <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
     <t>P_to_demand1</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
     <t>P_to_charging_station1</t>
   </si>
   <si>
+    <t>P_to_charging_station2</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
@@ -46,6 +55,9 @@
     <t>P_net1_charging_station1</t>
   </si>
   <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -58,6 +70,9 @@
     <t>P_pv1_charging_station1</t>
   </si>
   <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
@@ -65,6 +80,39 @@
   </si>
   <si>
     <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
   </si>
 </sst>
 </file>
@@ -422,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,61 +486,111 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station2</t>
   </si>
   <si>
     <t>P_CHP1_demand1</t>
@@ -507,10 +501,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -527,10 +521,10 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -547,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -563,14 +557,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -583,14 +577,14 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,12 +25,12 @@
     <t>P_from_bat1</t>
   </si>
   <si>
-    <t>P_from_CHP1</t>
-  </si>
-  <si>
     <t>P_from_pvt1</t>
   </si>
   <si>
+    <t>P_from_heat_pump1</t>
+  </si>
+  <si>
     <t>P_to_demand1</t>
   </si>
   <si>
@@ -43,7 +43,7 @@
     <t>P_to_charging_station1</t>
   </si>
   <si>
-    <t>P_to_charging_station2</t>
+    <t>P_to_heat_pump1</t>
   </si>
   <si>
     <t>P_net1_demand1</t>
@@ -55,7 +55,7 @@
     <t>P_net1_charging_station1</t>
   </si>
   <si>
-    <t>P_net1_charging_station2</t>
+    <t>P_net1_heat_pump1</t>
   </si>
   <si>
     <t>P_pv1_demand1</t>
@@ -70,7 +70,7 @@
     <t>P_pv1_charging_station1</t>
   </si>
   <si>
-    <t>P_pv1_charging_station2</t>
+    <t>P_pv1_heat_pump1</t>
   </si>
   <si>
     <t>P_bat1_demand1</t>
@@ -79,19 +79,10 @@
     <t>P_bat1_net1</t>
   </si>
   <si>
-    <t>P_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP1_net1</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station2</t>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
   </si>
   <si>
     <t>P_pvt1_demand1</t>
@@ -106,7 +97,7 @@
     <t>P_pvt1_charging_station1</t>
   </si>
   <si>
-    <t>P_pvt1_charging_station2</t>
+    <t>P_pvt1_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -501,10 +492,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,10 +512,10 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,14 +548,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -577,14 +568,14 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,12 +25,6 @@
     <t>P_from_bat1</t>
   </si>
   <si>
-    <t>P_from_pvt1</t>
-  </si>
-  <si>
-    <t>P_from_heat_pump1</t>
-  </si>
-  <si>
     <t>P_to_demand1</t>
   </si>
   <si>
@@ -40,24 +34,12 @@
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>P_to_charging_station1</t>
-  </si>
-  <si>
-    <t>P_to_heat_pump1</t>
-  </si>
-  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_net1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -67,37 +49,10 @@
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_pv1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pv1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt1_net1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pvt1_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -455,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,110 +426,46 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,7 +25,16 @@
     <t>P_from_bat1</t>
   </si>
   <si>
-    <t>P_to_demand1</t>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>param_P_to_demand1</t>
   </si>
   <si>
     <t>P_to_net1</t>
@@ -34,12 +43,30 @@
     <t>P_to_bat1</t>
   </si>
   <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump1</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -49,10 +76,64 @@
     <t>P_pv1_bat1</t>
   </si>
   <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump1</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -410,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,46 +507,151 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -82,9 +82,6 @@
     <t>P_pv1_charging_station2</t>
   </si>
   <si>
-    <t>P_pv1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>P_bat1_charging_station2</t>
   </si>
   <si>
-    <t>P_bat1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_CHP1_demand1</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>P_CHP1_charging_station2</t>
   </si>
   <si>
-    <t>P_CHP1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_pvt1_demand1</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
   </si>
   <si>
     <t>P_pvt1_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pvt1_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -528,13 +516,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -551,13 +539,13 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -577,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -597,13 +585,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -620,13 +608,13 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,17 +627,17 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,15 +25,6 @@
     <t>P_from_bat1</t>
   </si>
   <si>
-    <t>P_from_CHP1</t>
-  </si>
-  <si>
-    <t>P_from_pvt1</t>
-  </si>
-  <si>
-    <t>P_from_heat_pump1</t>
-  </si>
-  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
@@ -43,30 +34,12 @@
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>param_P_to_charging_station1</t>
-  </si>
-  <si>
-    <t>param_P_to_charging_station2</t>
-  </si>
-  <si>
-    <t>P_to_heat_pump1</t>
-  </si>
-  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_net1_charging_station2</t>
-  </si>
-  <si>
-    <t>P_net1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -76,52 +49,10 @@
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_pv1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pv1_charging_station2</t>
-  </si>
-  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station2</t>
-  </si>
-  <si>
-    <t>P_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP1_net1</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt1_net1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pvt1_charging_station2</t>
   </si>
 </sst>
 </file>
@@ -479,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,151 +426,46 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,45 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
     <t>P_to_net1</t>
   </si>
   <si>
-    <t>P_to_bat1</t>
+    <t>param_P_to_charging_station1</t>
   </si>
   <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
-    <t>P_net1_bat1</t>
-  </si>
-  <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>P_pv1_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
+    <t>P_net1_charging_station1</t>
   </si>
 </sst>
 </file>
@@ -410,63 +389,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,24 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
+    <t>param_P_to_demand2</t>
+  </si>
+  <si>
     <t>P_to_net1</t>
   </si>
   <si>
-    <t>param_P_to_charging_station1</t>
+    <t>P_to_bat1</t>
   </si>
   <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
-    <t>P_net1_charging_station1</t>
+    <t>P_net1_demand2</t>
+  </si>
+  <si>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand2</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand2</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
   </si>
 </sst>
 </file>
@@ -389,39 +422,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,17 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
+    <t>P_from_net2</t>
+  </si>
+  <si>
     <t>P_from_pv1</t>
   </si>
   <si>
+    <t>P_from_pv2</t>
+  </si>
+  <si>
     <t>P_from_bat1</t>
   </si>
   <si>
+    <t>P_from_bat2</t>
+  </si>
+  <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_CHP2</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_from_pvt2</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump2</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
@@ -34,9 +61,27 @@
     <t>P_to_net1</t>
   </si>
   <si>
+    <t>P_to_net2</t>
+  </si>
+  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
+    <t>P_to_bat2</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump2</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
@@ -46,6 +91,45 @@
     <t>P_net1_bat1</t>
   </si>
   <si>
+    <t>P_net1_bat2</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_net2_demand1</t>
+  </si>
+  <si>
+    <t>P_net2_demand2</t>
+  </si>
+  <si>
+    <t>P_net2_bat1</t>
+  </si>
+  <si>
+    <t>P_net2_bat2</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -55,9 +139,57 @@
     <t>P_pv1_net1</t>
   </si>
   <si>
+    <t>P_pv1_net2</t>
+  </si>
+  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
+    <t>P_pv1_bat2</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pv2_demand1</t>
+  </si>
+  <si>
+    <t>P_pv2_demand2</t>
+  </si>
+  <si>
+    <t>P_pv2_net1</t>
+  </si>
+  <si>
+    <t>P_pv2_net2</t>
+  </si>
+  <si>
+    <t>P_pv2_bat1</t>
+  </si>
+  <si>
+    <t>P_pv2_bat2</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
@@ -65,6 +197,165 @@
   </si>
   <si>
     <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_net2</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_bat2_demand1</t>
+  </si>
+  <si>
+    <t>P_bat2_demand2</t>
+  </si>
+  <si>
+    <t>P_bat2_net1</t>
+  </si>
+  <si>
+    <t>P_bat2_net2</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net2</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP2_net1</t>
+  </si>
+  <si>
+    <t>P_CHP2_net2</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net2</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt2_net1</t>
+  </si>
+  <si>
+    <t>P_pvt2_net2</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump2</t>
   </si>
 </sst>
 </file>
@@ -422,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,60 +729,441 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,45 +14,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
+    <t>P_from_net2</t>
+  </si>
+  <si>
     <t>P_from_pv1</t>
   </si>
   <si>
+    <t>P_from_pv2</t>
+  </si>
+  <si>
     <t>P_from_bat1</t>
   </si>
   <si>
+    <t>P_from_bat2</t>
+  </si>
+  <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_CHP2</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_from_pvt2</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump2</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
+    <t>param_P_to_demand2</t>
+  </si>
+  <si>
     <t>P_to_net1</t>
   </si>
   <si>
+    <t>P_to_net2</t>
+  </si>
+  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
+    <t>P_to_bat2</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump2</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
+    <t>P_net1_demand2</t>
+  </si>
+  <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
+    <t>P_net1_bat2</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_net2_demand1</t>
+  </si>
+  <si>
+    <t>P_net2_demand2</t>
+  </si>
+  <si>
+    <t>P_net2_bat1</t>
+  </si>
+  <si>
+    <t>P_net2_bat2</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
+    <t>P_pv1_demand2</t>
+  </si>
+  <si>
     <t>P_pv1_net1</t>
   </si>
   <si>
+    <t>P_pv1_net2</t>
+  </si>
+  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
+    <t>P_pv1_bat2</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pv2_demand1</t>
+  </si>
+  <si>
+    <t>P_pv2_demand2</t>
+  </si>
+  <si>
+    <t>P_pv2_net1</t>
+  </si>
+  <si>
+    <t>P_pv2_net2</t>
+  </si>
+  <si>
+    <t>P_pv2_bat1</t>
+  </si>
+  <si>
+    <t>P_pv2_bat2</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
+    <t>P_bat1_demand2</t>
+  </si>
+  <si>
     <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_net2</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_bat2_demand1</t>
+  </si>
+  <si>
+    <t>P_bat2_demand2</t>
+  </si>
+  <si>
+    <t>P_bat2_net1</t>
+  </si>
+  <si>
+    <t>P_bat2_net2</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net2</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP2_net1</t>
+  </si>
+  <si>
+    <t>P_CHP2_net2</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net2</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt2_net1</t>
+  </si>
+  <si>
+    <t>P_pvt2_net2</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump2</t>
   </si>
 </sst>
 </file>
@@ -410,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,46 +729,441 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,6 +25,15 @@
     <t>P_from_bat1</t>
   </si>
   <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_from_heat_pump1</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
@@ -34,12 +43,24 @@
     <t>P_to_bat1</t>
   </si>
   <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump1</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -49,10 +70,52 @@
     <t>P_pv1_bat1</t>
   </si>
   <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump1</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -410,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,46 +489,128 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,15 +25,6 @@
     <t>P_from_bat1</t>
   </si>
   <si>
-    <t>P_from_CHP1</t>
-  </si>
-  <si>
-    <t>P_from_pvt1</t>
-  </si>
-  <si>
-    <t>P_from_heat_pump1</t>
-  </si>
-  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
@@ -43,24 +34,12 @@
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>param_P_to_charging_station1</t>
-  </si>
-  <si>
-    <t>P_to_heat_pump1</t>
-  </si>
-  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_net1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -70,52 +49,10 @@
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_pv1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pv1_heat_pump1</t>
-  </si>
-  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP1_net1</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_CHP1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt1_net1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pvt1_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -473,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,128 +426,46 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,45 +14,342 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
+    <t>P_from_net2</t>
+  </si>
+  <si>
     <t>P_from_pv1</t>
   </si>
   <si>
+    <t>P_from_pv2</t>
+  </si>
+  <si>
     <t>P_from_bat1</t>
   </si>
   <si>
+    <t>P_from_bat2</t>
+  </si>
+  <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_CHP2</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_from_pvt2</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
+    <t>param_P_to_demand2</t>
+  </si>
+  <si>
     <t>P_to_net1</t>
   </si>
   <si>
+    <t>P_to_net2</t>
+  </si>
+  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
+    <t>P_to_bat2</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump2</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
+    <t>P_net1_demand2</t>
+  </si>
+  <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
+    <t>P_net1_bat2</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_net2_demand1</t>
+  </si>
+  <si>
+    <t>P_net2_demand2</t>
+  </si>
+  <si>
+    <t>P_net2_bat1</t>
+  </si>
+  <si>
+    <t>P_net2_bat2</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
+    <t>P_pv1_demand2</t>
+  </si>
+  <si>
     <t>P_pv1_net1</t>
   </si>
   <si>
+    <t>P_pv1_net2</t>
+  </si>
+  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
+    <t>P_pv1_bat2</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pv2_demand1</t>
+  </si>
+  <si>
+    <t>P_pv2_demand2</t>
+  </si>
+  <si>
+    <t>P_pv2_net1</t>
+  </si>
+  <si>
+    <t>P_pv2_net2</t>
+  </si>
+  <si>
+    <t>P_pv2_bat1</t>
+  </si>
+  <si>
+    <t>P_pv2_bat2</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
+    <t>P_bat1_demand2</t>
+  </si>
+  <si>
     <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_net2</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_bat2_demand1</t>
+  </si>
+  <si>
+    <t>P_bat2_demand2</t>
+  </si>
+  <si>
+    <t>P_bat2_net1</t>
+  </si>
+  <si>
+    <t>P_bat2_net2</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net2</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP2_net1</t>
+  </si>
+  <si>
+    <t>P_CHP2_net2</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net2</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt2_net1</t>
+  </si>
+  <si>
+    <t>P_pvt2_net2</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump2</t>
   </si>
 </sst>
 </file>
@@ -410,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,47 +723,376 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,15 +14,342 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>P_from_net2</t>
+  </si>
   <si>
     <t>P_from_pv1</t>
   </si>
   <si>
+    <t>P_from_pv2</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>P_from_bat2</t>
+  </si>
+  <si>
+    <t>P_from_CHP1</t>
+  </si>
+  <si>
+    <t>P_from_CHP2</t>
+  </si>
+  <si>
+    <t>P_from_pvt1</t>
+  </si>
+  <si>
+    <t>P_from_pvt2</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
+    <t>param_P_to_demand2</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>P_to_net2</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>P_to_bat2</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station1</t>
+  </si>
+  <si>
+    <t>param_P_to_charging_station2</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_to_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>P_net1_demand2</t>
+  </si>
+  <si>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_bat2</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_net2_demand1</t>
+  </si>
+  <si>
+    <t>P_net2_demand2</t>
+  </si>
+  <si>
+    <t>P_net2_bat1</t>
+  </si>
+  <si>
+    <t>P_net2_bat2</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_net2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_net2_heat_pump2</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand2</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>P_pv1_net2</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>P_pv1_bat2</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pv2_demand1</t>
+  </si>
+  <si>
+    <t>P_pv2_demand2</t>
+  </si>
+  <si>
+    <t>P_pv2_net1</t>
+  </si>
+  <si>
+    <t>P_pv2_net2</t>
+  </si>
+  <si>
+    <t>P_pv2_bat1</t>
+  </si>
+  <si>
+    <t>P_pv2_bat2</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pv2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pv2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand2</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_net2</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_bat2_demand1</t>
+  </si>
+  <si>
+    <t>P_bat2_demand2</t>
+  </si>
+  <si>
+    <t>P_bat2_net1</t>
+  </si>
+  <si>
+    <t>P_bat2_net2</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP1_net1</t>
+  </si>
+  <si>
+    <t>P_CHP1_net2</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>P_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>P_CHP2_net1</t>
+  </si>
+  <si>
+    <t>P_CHP2_net2</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat1</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat2</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_CHP2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_CHP2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt1_net1</t>
+  </si>
+  <si>
+    <t>P_pvt1_net2</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>P_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>P_pvt2_net1</t>
+  </si>
+  <si>
+    <t>P_pvt2_net2</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat1</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat2</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_pvt2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_pvt2_heat_pump2</t>
   </si>
 </sst>
 </file>
@@ -380,23 +707,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>P_from_net2</t>
-  </si>
-  <si>
     <t>P_from_pv1</t>
   </si>
   <si>
@@ -46,18 +43,18 @@
     <t>P_from_pvt2</t>
   </si>
   <si>
+    <t>P_from_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_from_bat_with_aging2</t>
+  </si>
+  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
-    <t>param_P_to_demand2</t>
-  </si>
-  <si>
     <t>P_to_net1</t>
   </si>
   <si>
-    <t>P_to_net2</t>
-  </si>
-  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
@@ -76,12 +73,15 @@
     <t>P_to_heat_pump2</t>
   </si>
   <si>
+    <t>P_to_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_to_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
-    <t>P_net1_demand2</t>
-  </si>
-  <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
@@ -100,42 +100,18 @@
     <t>P_net1_heat_pump2</t>
   </si>
   <si>
-    <t>P_net2_demand1</t>
-  </si>
-  <si>
-    <t>P_net2_demand2</t>
-  </si>
-  <si>
-    <t>P_net2_bat1</t>
-  </si>
-  <si>
-    <t>P_net2_bat2</t>
-  </si>
-  <si>
-    <t>P_net2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_net2_charging_station2</t>
-  </si>
-  <si>
-    <t>P_net2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_net2_heat_pump2</t>
+    <t>P_net1_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_net1_bat_with_aging2</t>
   </si>
   <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
-    <t>P_pv1_demand2</t>
-  </si>
-  <si>
     <t>P_pv1_net1</t>
   </si>
   <si>
-    <t>P_pv1_net2</t>
-  </si>
-  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
@@ -154,18 +130,18 @@
     <t>P_pv1_heat_pump2</t>
   </si>
   <si>
+    <t>P_pv1_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_pv1_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_pv2_demand1</t>
   </si>
   <si>
-    <t>P_pv2_demand2</t>
-  </si>
-  <si>
     <t>P_pv2_net1</t>
   </si>
   <si>
-    <t>P_pv2_net2</t>
-  </si>
-  <si>
     <t>P_pv2_bat1</t>
   </si>
   <si>
@@ -184,16 +160,19 @@
     <t>P_pv2_heat_pump2</t>
   </si>
   <si>
+    <t>P_pv2_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_pv2_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
-    <t>P_bat1_demand2</t>
-  </si>
-  <si>
     <t>P_bat1_net1</t>
   </si>
   <si>
-    <t>P_bat1_net2</t>
+    <t>P_bat1_bat2</t>
   </si>
   <si>
     <t>P_bat1_charging_station1</t>
@@ -208,16 +187,19 @@
     <t>P_bat1_heat_pump2</t>
   </si>
   <si>
+    <t>P_bat1_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_bat1_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_bat2_demand1</t>
   </si>
   <si>
-    <t>P_bat2_demand2</t>
-  </si>
-  <si>
     <t>P_bat2_net1</t>
   </si>
   <si>
-    <t>P_bat2_net2</t>
+    <t>P_bat2_bat1</t>
   </si>
   <si>
     <t>P_bat2_charging_station1</t>
@@ -232,18 +214,18 @@
     <t>P_bat2_heat_pump2</t>
   </si>
   <si>
+    <t>P_bat2_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_bat2_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_CHP1_demand1</t>
   </si>
   <si>
-    <t>P_CHP1_demand2</t>
-  </si>
-  <si>
     <t>P_CHP1_net1</t>
   </si>
   <si>
-    <t>P_CHP1_net2</t>
-  </si>
-  <si>
     <t>P_CHP1_bat1</t>
   </si>
   <si>
@@ -262,18 +244,18 @@
     <t>P_CHP1_heat_pump2</t>
   </si>
   <si>
+    <t>P_CHP1_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_CHP1_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_CHP2_demand1</t>
   </si>
   <si>
-    <t>P_CHP2_demand2</t>
-  </si>
-  <si>
     <t>P_CHP2_net1</t>
   </si>
   <si>
-    <t>P_CHP2_net2</t>
-  </si>
-  <si>
     <t>P_CHP2_bat1</t>
   </si>
   <si>
@@ -292,18 +274,18 @@
     <t>P_CHP2_heat_pump2</t>
   </si>
   <si>
+    <t>P_CHP2_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_CHP2_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_pvt1_demand1</t>
   </si>
   <si>
-    <t>P_pvt1_demand2</t>
-  </si>
-  <si>
     <t>P_pvt1_net1</t>
   </si>
   <si>
-    <t>P_pvt1_net2</t>
-  </si>
-  <si>
     <t>P_pvt1_bat1</t>
   </si>
   <si>
@@ -322,18 +304,18 @@
     <t>P_pvt1_heat_pump2</t>
   </si>
   <si>
+    <t>P_pvt1_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_pvt1_bat_with_aging2</t>
+  </si>
+  <si>
     <t>P_pvt2_demand1</t>
   </si>
   <si>
-    <t>P_pvt2_demand2</t>
-  </si>
-  <si>
     <t>P_pvt2_net1</t>
   </si>
   <si>
-    <t>P_pvt2_net2</t>
-  </si>
-  <si>
     <t>P_pvt2_bat1</t>
   </si>
   <si>
@@ -350,6 +332,60 @@
   </si>
   <si>
     <t>P_pvt2_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat_with_aging1</t>
+  </si>
+  <si>
+    <t>P_pvt2_bat_with_aging2</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_demand1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_net1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_bat1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_bat2</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging1_heat_pump2</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_demand1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_net1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_bat1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_bat2</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_charging_station1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_charging_station2</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_heat_pump1</t>
+  </si>
+  <si>
+    <t>P_bat_with_aging2_heat_pump2</t>
   </si>
 </sst>
 </file>
@@ -707,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,355 +780,388 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="L11">
         <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -22,9 +22,6 @@
     <t>P_from_pv1</t>
   </si>
   <si>
-    <t>P_from_pv2</t>
-  </si>
-  <si>
     <t>P_from_bat1</t>
   </si>
   <si>
@@ -34,15 +31,9 @@
     <t>P_from_CHP1</t>
   </si>
   <si>
-    <t>P_from_CHP2</t>
-  </si>
-  <si>
     <t>P_from_pvt1</t>
   </si>
   <si>
-    <t>P_from_pvt2</t>
-  </si>
-  <si>
     <t>P_from_bat_with_aging1</t>
   </si>
   <si>
@@ -61,18 +52,9 @@
     <t>P_to_bat2</t>
   </si>
   <si>
-    <t>param_P_to_charging_station1</t>
-  </si>
-  <si>
-    <t>param_P_to_charging_station2</t>
-  </si>
-  <si>
     <t>P_to_heat_pump1</t>
   </si>
   <si>
-    <t>P_to_heat_pump2</t>
-  </si>
-  <si>
     <t>P_to_bat_with_aging1</t>
   </si>
   <si>
@@ -88,18 +70,9 @@
     <t>P_net1_bat2</t>
   </si>
   <si>
-    <t>P_net1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_net1_charging_station2</t>
-  </si>
-  <si>
     <t>P_net1_heat_pump1</t>
   </si>
   <si>
-    <t>P_net1_heat_pump2</t>
-  </si>
-  <si>
     <t>P_net1_bat_with_aging1</t>
   </si>
   <si>
@@ -118,75 +91,24 @@
     <t>P_pv1_bat2</t>
   </si>
   <si>
-    <t>P_pv1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pv1_charging_station2</t>
-  </si>
-  <si>
     <t>P_pv1_heat_pump1</t>
   </si>
   <si>
-    <t>P_pv1_heat_pump2</t>
-  </si>
-  <si>
     <t>P_pv1_bat_with_aging1</t>
   </si>
   <si>
     <t>P_pv1_bat_with_aging2</t>
   </si>
   <si>
-    <t>P_pv2_demand1</t>
-  </si>
-  <si>
-    <t>P_pv2_net1</t>
-  </si>
-  <si>
-    <t>P_pv2_bat1</t>
-  </si>
-  <si>
-    <t>P_pv2_bat2</t>
-  </si>
-  <si>
-    <t>P_pv2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pv2_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pv2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_pv2_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_pv2_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_pv2_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>P_bat1_net1</t>
   </si>
   <si>
-    <t>P_bat1_bat2</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat1_charging_station2</t>
-  </si>
-  <si>
     <t>P_bat1_heat_pump1</t>
   </si>
   <si>
-    <t>P_bat1_heat_pump2</t>
-  </si>
-  <si>
     <t>P_bat1_bat_with_aging1</t>
   </si>
   <si>
@@ -199,21 +121,9 @@
     <t>P_bat2_net1</t>
   </si>
   <si>
-    <t>P_bat2_bat1</t>
-  </si>
-  <si>
-    <t>P_bat2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat2_charging_station2</t>
-  </si>
-  <si>
     <t>P_bat2_heat_pump1</t>
   </si>
   <si>
-    <t>P_bat2_heat_pump2</t>
-  </si>
-  <si>
     <t>P_bat2_bat_with_aging1</t>
   </si>
   <si>
@@ -232,54 +142,15 @@
     <t>P_CHP1_bat2</t>
   </si>
   <si>
-    <t>P_CHP1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_CHP1_charging_station2</t>
-  </si>
-  <si>
     <t>P_CHP1_heat_pump1</t>
   </si>
   <si>
-    <t>P_CHP1_heat_pump2</t>
-  </si>
-  <si>
     <t>P_CHP1_bat_with_aging1</t>
   </si>
   <si>
     <t>P_CHP1_bat_with_aging2</t>
   </si>
   <si>
-    <t>P_CHP2_demand1</t>
-  </si>
-  <si>
-    <t>P_CHP2_net1</t>
-  </si>
-  <si>
-    <t>P_CHP2_bat1</t>
-  </si>
-  <si>
-    <t>P_CHP2_bat2</t>
-  </si>
-  <si>
-    <t>P_CHP2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_CHP2_charging_station2</t>
-  </si>
-  <si>
-    <t>P_CHP2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_CHP2_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_CHP2_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_CHP2_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_pvt1_demand1</t>
   </si>
   <si>
@@ -292,54 +163,15 @@
     <t>P_pvt1_bat2</t>
   </si>
   <si>
-    <t>P_pvt1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pvt1_charging_station2</t>
-  </si>
-  <si>
     <t>P_pvt1_heat_pump1</t>
   </si>
   <si>
-    <t>P_pvt1_heat_pump2</t>
-  </si>
-  <si>
     <t>P_pvt1_bat_with_aging1</t>
   </si>
   <si>
     <t>P_pvt1_bat_with_aging2</t>
   </si>
   <si>
-    <t>P_pvt2_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt2_net1</t>
-  </si>
-  <si>
-    <t>P_pvt2_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt2_bat2</t>
-  </si>
-  <si>
-    <t>P_pvt2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_pvt2_charging_station2</t>
-  </si>
-  <si>
-    <t>P_pvt2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_pvt2_heat_pump2</t>
-  </si>
-  <si>
-    <t>P_pvt2_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_pvt2_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_bat_with_aging1_demand1</t>
   </si>
   <si>
@@ -352,18 +184,9 @@
     <t>P_bat_with_aging1_bat2</t>
   </si>
   <si>
-    <t>P_bat_with_aging1_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging1_charging_station2</t>
-  </si>
-  <si>
     <t>P_bat_with_aging1_heat_pump1</t>
   </si>
   <si>
-    <t>P_bat_with_aging1_heat_pump2</t>
-  </si>
-  <si>
     <t>P_bat_with_aging2_demand1</t>
   </si>
   <si>
@@ -376,16 +199,7 @@
     <t>P_bat_with_aging2_bat2</t>
   </si>
   <si>
-    <t>P_bat_with_aging2_charging_station1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_charging_station2</t>
-  </si>
-  <si>
     <t>P_bat_with_aging2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_heat_pump2</t>
   </si>
 </sst>
 </file>
@@ -743,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,393 +588,207 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>116</v>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_electric.xlsx
+++ b/output/df_con_electric.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>P_from_net1</t>
   </si>
@@ -25,21 +25,9 @@
     <t>P_from_bat1</t>
   </si>
   <si>
-    <t>P_from_bat2</t>
-  </si>
-  <si>
     <t>P_from_CHP1</t>
   </si>
   <si>
-    <t>P_from_pvt1</t>
-  </si>
-  <si>
-    <t>P_from_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_from_bat_with_aging2</t>
-  </si>
-  <si>
     <t>param_P_to_demand1</t>
   </si>
   <si>
@@ -49,36 +37,18 @@
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>P_to_bat2</t>
-  </si>
-  <si>
     <t>P_to_heat_pump1</t>
   </si>
   <si>
-    <t>P_to_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_to_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_net1_demand1</t>
   </si>
   <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_bat2</t>
-  </si>
-  <si>
     <t>P_net1_heat_pump1</t>
   </si>
   <si>
-    <t>P_net1_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_net1_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
@@ -88,18 +58,9 @@
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_pv1_bat2</t>
-  </si>
-  <si>
     <t>P_pv1_heat_pump1</t>
   </si>
   <si>
-    <t>P_pv1_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_pv1_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_bat1_demand1</t>
   </si>
   <si>
@@ -109,27 +70,6 @@
     <t>P_bat1_heat_pump1</t>
   </si>
   <si>
-    <t>P_bat1_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_bat1_bat_with_aging2</t>
-  </si>
-  <si>
-    <t>P_bat2_demand1</t>
-  </si>
-  <si>
-    <t>P_bat2_net1</t>
-  </si>
-  <si>
-    <t>P_bat2_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_bat2_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_bat2_bat_with_aging2</t>
-  </si>
-  <si>
     <t>P_CHP1_demand1</t>
   </si>
   <si>
@@ -139,67 +79,7 @@
     <t>P_CHP1_bat1</t>
   </si>
   <si>
-    <t>P_CHP1_bat2</t>
-  </si>
-  <si>
     <t>P_CHP1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_CHP1_bat_with_aging2</t>
-  </si>
-  <si>
-    <t>P_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>P_pvt1_net1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat2</t>
-  </si>
-  <si>
-    <t>P_pvt1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat_with_aging1</t>
-  </si>
-  <si>
-    <t>P_pvt1_bat_with_aging2</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging1_demand1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging1_net1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging1_bat1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging1_bat2</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging1_heat_pump1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_demand1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_net1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_bat1</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_bat2</t>
-  </si>
-  <si>
-    <t>P_bat_with_aging2_heat_pump1</t>
   </si>
 </sst>
 </file>
@@ -557,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,220 +456,73 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
